--- a/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>201053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175685</v>
+        <v>176255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227609</v>
+        <v>228467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2920827693083727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2552293162514999</v>
+        <v>0.256056446026695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3306622808991864</v>
+        <v>0.3319088917571839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -762,19 +762,19 @@
         <v>177307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156916</v>
+        <v>157298</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>196601</v>
+        <v>197422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2430305735564513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2150804350408091</v>
+        <v>0.2156041502536562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2694761162190124</v>
+        <v>0.2706013576593918</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -783,19 +783,19 @@
         <v>378360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>347299</v>
+        <v>345859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408042</v>
+        <v>414619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2668435828811772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2449372939726566</v>
+        <v>0.2439217736130313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2877765395600839</v>
+        <v>0.2924150427680283</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>487290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460734</v>
+        <v>459876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>512658</v>
+        <v>512088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7079172306916273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6693377191008136</v>
+        <v>0.6680911082428161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7447706837485002</v>
+        <v>0.7439435539733049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>968</v>
@@ -833,19 +833,19 @@
         <v>552261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>532967</v>
+        <v>532146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>572652</v>
+        <v>572270</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7569694264435488</v>
+        <v>0.7569694264435487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7305238837809876</v>
+        <v>0.729398642340608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7849195649591909</v>
+        <v>0.7843958497463434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1502</v>
@@ -854,19 +854,19 @@
         <v>1039551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1009869</v>
+        <v>1003292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1070612</v>
+        <v>1072052</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7331564171188228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7122234604399158</v>
+        <v>0.7075849572319718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7550627060273435</v>
+        <v>0.7560782263869686</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>349558</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>315863</v>
+        <v>315719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>384982</v>
+        <v>384760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3344783296747478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3022367216754592</v>
+        <v>0.3020996385685528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3683738809455334</v>
+        <v>0.3681613932487073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>462</v>
@@ -979,19 +979,19 @@
         <v>346038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>317401</v>
+        <v>317300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>373828</v>
+        <v>373583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3233112893275198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2965545223819889</v>
+        <v>0.2964603657074181</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3492758939056331</v>
+        <v>0.3490467374662108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>762</v>
@@ -1000,19 +1000,19 @@
         <v>695596</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>655498</v>
+        <v>651029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>743642</v>
+        <v>738349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3288282685155985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3098727101184695</v>
+        <v>0.3077601922275884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3515409457482423</v>
+        <v>0.3490388938712732</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>695526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>660102</v>
+        <v>660324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>729221</v>
+        <v>729365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6655216703252521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.631626119054467</v>
+        <v>0.6318386067512928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.697763278324541</v>
+        <v>0.6979003614314473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1053</v>
@@ -1050,19 +1050,19 @@
         <v>724256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>696466</v>
+        <v>696711</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>752893</v>
+        <v>752994</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6766887106724802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6507241060943669</v>
+        <v>0.650953262533789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.703445477618011</v>
+        <v>0.7035396342925819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1712</v>
@@ -1071,19 +1071,19 @@
         <v>1419781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1371735</v>
+        <v>1377028</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1459879</v>
+        <v>1464348</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6711717314844016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6484590542517575</v>
+        <v>0.6509611061287273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6901272898815305</v>
+        <v>0.6922398077724118</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>254920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224882</v>
+        <v>224078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>286101</v>
+        <v>284435</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3179393532420178</v>
+        <v>0.3179393532420179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2804759447960191</v>
+        <v>0.2794734952564582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3568296919855385</v>
+        <v>0.3547507119767014</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -1196,19 +1196,19 @@
         <v>194017</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173045</v>
+        <v>168793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220597</v>
+        <v>218411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2392064313998356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2133499482902171</v>
+        <v>0.2081076284736565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2719774335231963</v>
+        <v>0.2692829265326783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>443</v>
@@ -1217,19 +1217,19 @@
         <v>448936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>412786</v>
+        <v>411746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488614</v>
+        <v>491704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.278345934766044</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.255932177285082</v>
+        <v>0.2552874292296262</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3029466959829553</v>
+        <v>0.3048624091418387</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>546867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515686</v>
+        <v>517352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>576905</v>
+        <v>577709</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6820606467579819</v>
+        <v>0.6820606467579821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6431703080144615</v>
+        <v>0.6452492880232987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7195240552039808</v>
+        <v>0.720526504743542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>814</v>
@@ -1267,19 +1267,19 @@
         <v>617068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590488</v>
+        <v>592674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>638040</v>
+        <v>642292</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7607935686001646</v>
+        <v>0.7607935686001644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7280225664768039</v>
+        <v>0.7307170734673216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7866500517097829</v>
+        <v>0.7918923715263434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -1288,19 +1288,19 @@
         <v>1163936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1124258</v>
+        <v>1121168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200086</v>
+        <v>1201126</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7216540652339559</v>
+        <v>0.721654065233956</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6970533040170447</v>
+        <v>0.6951375908581613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.744067822714918</v>
+        <v>0.7447125707703737</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>330416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>301848</v>
+        <v>297616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365335</v>
+        <v>361776</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3340477999219064</v>
+        <v>0.3340477999219065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3051654047335702</v>
+        <v>0.3008872154623728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3693503869933766</v>
+        <v>0.3657526856598757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>405</v>
@@ -1413,19 +1413,19 @@
         <v>320142</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>290952</v>
+        <v>294360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350465</v>
+        <v>346851</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2874119381317529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2612062714319552</v>
+        <v>0.2642663986006264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3146352090207996</v>
+        <v>0.3113907439198624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>722</v>
@@ -1434,19 +1434,19 @@
         <v>650558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>607677</v>
+        <v>606153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>691574</v>
+        <v>693893</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3093466663914792</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2889566476798655</v>
+        <v>0.2882317536154608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.328850443769112</v>
+        <v>0.3299531532386367</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>658712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623793</v>
+        <v>627352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>687280</v>
+        <v>691512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6659522000780936</v>
+        <v>0.6659522000780937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6306496130066233</v>
+        <v>0.6342473143401244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6948345952664298</v>
+        <v>0.6991127845376268</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1149</v>
@@ -1484,19 +1484,19 @@
         <v>793735</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>763412</v>
+        <v>767026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822925</v>
+        <v>819517</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7125880618682471</v>
+        <v>0.712588061868247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6853647909792002</v>
+        <v>0.6886092560801377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7387937285680444</v>
+        <v>0.7357336013993734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1837</v>
@@ -1505,19 +1505,19 @@
         <v>1452447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1411431</v>
+        <v>1409112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1495328</v>
+        <v>1496852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6906533336085209</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6711495562308882</v>
+        <v>0.6700468467613633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7110433523201347</v>
+        <v>0.7117682463845391</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1135946</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1075529</v>
+        <v>1078522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1201682</v>
+        <v>1198805</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3223145644577426</v>
+        <v>0.3223145644577428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3051715271441792</v>
+        <v>0.3060210061680099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3409664854172053</v>
+        <v>0.3401500935635021</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1363</v>
@@ -1630,19 +1630,19 @@
         <v>1037504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>989324</v>
+        <v>981494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1091456</v>
+        <v>1085153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.278537649649796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2656030104943282</v>
+        <v>0.263500848787296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930220971062326</v>
+        <v>0.2913299570289967</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2385</v>
@@ -1651,19 +1651,19 @@
         <v>2173450</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2092328</v>
+        <v>2089622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2255871</v>
+        <v>2248336</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2998207613619225</v>
+        <v>0.2998207613619224</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2886302232075397</v>
+        <v>0.2882569659572337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3111904958041797</v>
+        <v>0.3101510608486134</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2388395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2322659</v>
+        <v>2325536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2448812</v>
+        <v>2445819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6776854355422572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.659033514582795</v>
+        <v>0.6598499064364979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6948284728558211</v>
+        <v>0.6939789938319904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3984</v>
@@ -1701,19 +1701,19 @@
         <v>2687320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2633368</v>
+        <v>2639671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2735500</v>
+        <v>2743330</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.721462350350204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7069779028937675</v>
+        <v>0.7086700429710036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7343969895056718</v>
+        <v>0.736499151212704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6328</v>
@@ -1722,19 +1722,19 @@
         <v>5075715</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4993294</v>
+        <v>5000829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5156837</v>
+        <v>5159543</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7001792386380775</v>
+        <v>0.7001792386380777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6888095041958199</v>
+        <v>0.6898489391513866</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7113697767924602</v>
+        <v>0.7117430340427664</v>
       </c>
     </row>
     <row r="18">
